--- a/data.xlsx
+++ b/data.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\minhh\Documents\Professional\CV Automation\generate-bulk-documents-python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EBEF565-1678-40F8-8E24-DBDE94E2F979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F25A923-6399-4D68-AF99-074408AC489B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2196" yWindow="1128" windowWidth="12768" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8088" yWindow="1752" windowWidth="12768" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Recipient Details" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Recipient</t>
   </si>
@@ -52,29 +53,35 @@
     <t>Hiring Manager</t>
   </si>
   <si>
-    <t>Wayfair</t>
-  </si>
-  <si>
-    <t>Business Analyst Internship</t>
-  </si>
-  <si>
     <t>Business analytics play a very important role in business decisions and I would like to understand business decisions better</t>
   </si>
   <si>
-    <t>TAG Collective</t>
-  </si>
-  <si>
-    <t>Web Development</t>
-  </si>
-  <si>
-    <t>Web Development is a key function of a company in that it is one of the sole points of communicate between the user and the company.</t>
+    <t>Software development as it relates to data analytics is an important role in asset mangement. I believe my experience with Python and data will be useful</t>
+  </si>
+  <si>
+    <t>Web Development is a key function of a company in that it is one of the sole points of communicate between the user and the company</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>PTC</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>UX Intern</t>
+  </si>
+  <si>
+    <t>I have worked on creating my own websites using ReactJs and have tried a lot of different UX techniques to engage users more. I want to develop these skills and make website more interactive and engaging to increase the visibility of the company.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,13 +89,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -103,8 +122,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,9 +143,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:I11" totalsRowShown="0">
-  <autoFilter ref="A1:I11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:K11" totalsRowShown="0">
+  <autoFilter ref="A1:K11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Recipient"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Recipient First Name"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Recipient Title"/>
@@ -135,6 +155,8 @@
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Position"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Reason"/>
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Date"/>
+    <tableColumn id="10" xr3:uid="{02DDB910-8B06-4F0E-BC25-04651282B943}" name="Column1"/>
+    <tableColumn id="11" xr3:uid="{0185E550-9BCC-48E2-A436-53DC194F3351}" name="Column2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -428,10 +450,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -444,7 +466,7 @@
     <col min="7" max="9" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,8 +494,14 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -484,47 +512,64 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79C7D7A-7C9B-4191-80D2-CAF05651B14F}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>